--- a/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>65450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51338</v>
+        <v>49866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82069</v>
+        <v>83515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09974645211033967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07823919475931197</v>
+        <v>0.07599615472862113</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1250739554765878</v>
+        <v>0.1272773490900353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>26055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17119</v>
+        <v>17287</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37512</v>
+        <v>36539</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04086438150371846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02684881024266202</v>
+        <v>0.02711224769894404</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05883344934765063</v>
+        <v>0.05730793234580703</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -786,19 +786,19 @@
         <v>91505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74645</v>
+        <v>72706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110997</v>
+        <v>110278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07072802131152751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05769650209429137</v>
+        <v>0.05619711850204789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08579398674907998</v>
+        <v>0.08523813901469292</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>132062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112384</v>
+        <v>112253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152480</v>
+        <v>152990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2012623867828232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1712735012914342</v>
+        <v>0.1710733359553137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2323807548133194</v>
+        <v>0.2331580523836914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -836,19 +836,19 @@
         <v>97355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80339</v>
+        <v>82179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115866</v>
+        <v>116783</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1526907907106341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1260028986797014</v>
+        <v>0.1288893630047351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1817229273785502</v>
+        <v>0.1831615071719873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>229</v>
@@ -857,19 +857,19 @@
         <v>229416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>201877</v>
+        <v>204017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>255337</v>
+        <v>255328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.177325193595018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1560385573747173</v>
+        <v>0.1576931408118707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1973605657764828</v>
+        <v>0.197353439308357</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>262730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236777</v>
+        <v>237869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286137</v>
+        <v>289498</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4004010267305609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3608498494581752</v>
+        <v>0.3625129497858254</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4360740111145318</v>
+        <v>0.4411963016413138</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>296</v>
@@ -907,19 +907,19 @@
         <v>293814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267852</v>
+        <v>269481</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>315702</v>
+        <v>316979</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4608164519649717</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4200977300552145</v>
+        <v>0.4226517911316858</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4951456623094204</v>
+        <v>0.4971484189292081</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>557</v>
@@ -928,19 +928,19 @@
         <v>556544</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>520726</v>
+        <v>522578</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>589846</v>
+        <v>593064</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4301751297518024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4024899750874538</v>
+        <v>0.4039219209506003</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.455915384940677</v>
+        <v>0.4584034116944807</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>195925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>173701</v>
+        <v>172539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222373</v>
+        <v>218108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2985901343762762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2647215690008903</v>
+        <v>0.2629502314425652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3388972023907464</v>
+        <v>0.332397456732358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>226</v>
@@ -978,19 +978,19 @@
         <v>220371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196816</v>
+        <v>198351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243053</v>
+        <v>243565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3456283758206758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.308684445851273</v>
+        <v>0.3110926605119599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3812021970702019</v>
+        <v>0.3820064397558647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>419</v>
@@ -999,19 +999,19 @@
         <v>416296</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>386171</v>
+        <v>386475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>453437</v>
+        <v>447078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.321771655341652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2984870394045175</v>
+        <v>0.2987219462120478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3504798334058918</v>
+        <v>0.3455643267556709</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>77940</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62303</v>
+        <v>62951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97798</v>
+        <v>96524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08429063919869258</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06737931013065941</v>
+        <v>0.06808012920398322</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1057664120835887</v>
+        <v>0.1043878839258312</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -1124,19 +1124,19 @@
         <v>50439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38003</v>
+        <v>38183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66098</v>
+        <v>65248</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05376915163263743</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04051203826543386</v>
+        <v>0.04070411347565481</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07046277066265649</v>
+        <v>0.06955629575934359</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>119</v>
@@ -1145,19 +1145,19 @@
         <v>128379</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>106827</v>
+        <v>108732</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>151124</v>
+        <v>155478</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06892014700169995</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05734980047276445</v>
+        <v>0.0583724444368121</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08113066525928044</v>
+        <v>0.08346794021978295</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>202535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178206</v>
+        <v>175738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>230327</v>
+        <v>228858</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2190365663805852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1927248864872988</v>
+        <v>0.1900559238031685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2490927897315731</v>
+        <v>0.2475045926692342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -1195,19 +1195,19 @@
         <v>134493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113441</v>
+        <v>113625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158573</v>
+        <v>157163</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1433733391442959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1209315733344676</v>
+        <v>0.1211280176962849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.169043387040052</v>
+        <v>0.1675408999219205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>313</v>
@@ -1216,19 +1216,19 @@
         <v>337028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>306716</v>
+        <v>303149</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373477</v>
+        <v>369811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1809328847917465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1646601892100307</v>
+        <v>0.1627450067461238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2005005921478829</v>
+        <v>0.1985323662446686</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>341017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311743</v>
+        <v>310988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373355</v>
+        <v>373222</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3688016266338359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3371418280199385</v>
+        <v>0.3363254231429415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4037742227238124</v>
+        <v>0.4036297834391335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>359</v>
@@ -1269,16 +1269,16 @@
         <v>348207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>410868</v>
+        <v>413447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4043830990213166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3711990245350553</v>
+        <v>0.3711997216600236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4379977264588702</v>
+        <v>0.440747491211486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>676</v>
@@ -1287,19 +1287,19 @@
         <v>720353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>679530</v>
+        <v>680954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>761481</v>
+        <v>766076</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.386720305810454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3648047575465251</v>
+        <v>0.3655691434469628</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4088001177062893</v>
+        <v>0.4112668699416887</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>303170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274670</v>
+        <v>274955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>331287</v>
+        <v>332218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3278711677868862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.297048931133571</v>
+        <v>0.2973569271197459</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3582785750287742</v>
+        <v>0.3592856093881849</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>349</v>
@@ -1337,19 +1337,19 @@
         <v>373793</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>343265</v>
+        <v>345380</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>402978</v>
+        <v>408408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3984744102017501</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.365930956183213</v>
+        <v>0.368185944747989</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4295873123157722</v>
+        <v>0.4353751658625569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>637</v>
@@ -1358,19 +1358,19 @@
         <v>676963</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>635298</v>
+        <v>634657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>716454</v>
+        <v>721555</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3634266623960996</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3410590284482833</v>
+        <v>0.3407144969769295</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3846274398064838</v>
+        <v>0.3873659574788433</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>45948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33880</v>
+        <v>34161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61834</v>
+        <v>61249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07053705026414862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05201049294287036</v>
+        <v>0.05244256423791038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0949240743717969</v>
+        <v>0.09402732183105449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1483,19 +1483,19 @@
         <v>23504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15788</v>
+        <v>15341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33288</v>
+        <v>34138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03555092824965628</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02388009215152031</v>
+        <v>0.02320433873190262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05034953625610385</v>
+        <v>0.05163599736290572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1504,19 +1504,19 @@
         <v>69452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53696</v>
+        <v>55381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86511</v>
+        <v>87908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0529142786767007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04091030896036503</v>
+        <v>0.04219381423480008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06591135640719838</v>
+        <v>0.06697567759427074</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>133387</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>114074</v>
+        <v>113448</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>155038</v>
+        <v>159083</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2047689908615547</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1751216943756442</v>
+        <v>0.1741604944933498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2380077474368011</v>
+        <v>0.2442176485088493</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -1554,19 +1554,19 @@
         <v>77837</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>62746</v>
+        <v>62199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>95147</v>
+        <v>96228</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1177322947621174</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0949071753875379</v>
+        <v>0.09408023064958369</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1439156311632091</v>
+        <v>0.1455501385000101</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>204</v>
@@ -1575,19 +1575,19 @@
         <v>211223</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>185601</v>
+        <v>185997</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>239944</v>
+        <v>239087</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1609279554232416</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1414068123613233</v>
+        <v>0.1417082905103468</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1828099002455148</v>
+        <v>0.1821569094535705</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>255600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>231609</v>
+        <v>230834</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>281049</v>
+        <v>284829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3923852657596591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3555555661890814</v>
+        <v>0.3543655008977444</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4314538405461928</v>
+        <v>0.4372561628466818</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>256</v>
@@ -1625,19 +1625,19 @@
         <v>258208</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>233554</v>
+        <v>233379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282819</v>
+        <v>284417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3905543794024827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3532632953676219</v>
+        <v>0.3529989160959904</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4277802272670285</v>
+        <v>0.4301965871755851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>494</v>
@@ -1646,19 +1646,19 @@
         <v>513808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>477543</v>
+        <v>476042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>549007</v>
+        <v>549186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3914630345943494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3638335894990959</v>
+        <v>0.3626894773743528</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4182810872271729</v>
+        <v>0.4184174506913211</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>216466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192184</v>
+        <v>192918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>242493</v>
+        <v>241154</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3323086931146376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2950324471052478</v>
+        <v>0.2961584251604338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3722640408396045</v>
+        <v>0.3702087337327804</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>308</v>
@@ -1696,19 +1696,19 @@
         <v>301584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>275594</v>
+        <v>276862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>324605</v>
+        <v>329733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4561623975857436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4168521859656092</v>
+        <v>0.4187699147286816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4909835145898365</v>
+        <v>0.4987393240361711</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>516</v>
@@ -1717,19 +1717,19 @@
         <v>518049</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>484802</v>
+        <v>480596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>553157</v>
+        <v>555290</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3946947313057083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3693636603898904</v>
+        <v>0.3661593817321815</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4214425534934017</v>
+        <v>0.4230679736738789</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>70567</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56666</v>
+        <v>55936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86688</v>
+        <v>88345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.080054891480106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06428421644700542</v>
+        <v>0.06345620932339369</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09834323449854888</v>
+        <v>0.1002229847052012</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1842,19 +1842,19 @@
         <v>54318</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41501</v>
+        <v>41461</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72161</v>
+        <v>70475</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05577753287371484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04261625247006802</v>
+        <v>0.04257521797763622</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0741000155855521</v>
+        <v>0.07236960502918791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -1863,19 +1863,19 @@
         <v>124885</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103643</v>
+        <v>105337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147268</v>
+        <v>147184</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06731204676478836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05586296234928674</v>
+        <v>0.05677586109376778</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07937641823135007</v>
+        <v>0.0793314520245683</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>185085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162349</v>
+        <v>160982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210459</v>
+        <v>210812</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2099699379992615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1841769497815934</v>
+        <v>0.1826259594147078</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2387556416739164</v>
+        <v>0.2391553903874708</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>151</v>
@@ -1913,19 +1913,19 @@
         <v>158102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134577</v>
+        <v>132594</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182440</v>
+        <v>183014</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1623512899920488</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1381936735460371</v>
+        <v>0.1361582536034647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1873433384606364</v>
+        <v>0.1879324487431286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -1934,19 +1934,19 @@
         <v>343187</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307191</v>
+        <v>311090</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>375962</v>
+        <v>378059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1849755781536423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1655736812780251</v>
+        <v>0.1676756276642682</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2026408293690161</v>
+        <v>0.2037712540611868</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>352851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>322724</v>
+        <v>322403</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>380401</v>
+        <v>380495</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4002915345857163</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3661138666667967</v>
+        <v>0.3657498930388635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4315457306278536</v>
+        <v>0.4316529530256013</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>370</v>
@@ -1984,19 +1984,19 @@
         <v>384718</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>353254</v>
+        <v>353086</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>415418</v>
+        <v>414187</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3950582203025129</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3627488030549899</v>
+        <v>0.3625756939952782</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4265832036671788</v>
+        <v>0.4253197521499569</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>734</v>
@@ -2005,19 +2005,19 @@
         <v>737569</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>699916</v>
+        <v>700061</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>779988</v>
+        <v>782211</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.397544641386233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3772503475243655</v>
+        <v>0.377328440227971</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4204085741051092</v>
+        <v>0.4216063778339523</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>272981</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248194</v>
+        <v>247415</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>303522</v>
+        <v>300540</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3096836359349162</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2815639286769254</v>
+        <v>0.2806798546254605</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3443302820311339</v>
+        <v>0.3409475645241898</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>362</v>
@@ -2055,19 +2055,19 @@
         <v>376689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>346047</v>
+        <v>349306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>408267</v>
+        <v>412903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3868129568317235</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3553474858474738</v>
+        <v>0.3586948281864726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4192398881475516</v>
+        <v>0.4240002840899466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>658</v>
@@ -2076,19 +2076,19 @@
         <v>649670</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>609118</v>
+        <v>606323</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>686769</v>
+        <v>689375</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3501677336953364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3283106078378895</v>
+        <v>0.3268043195593954</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3701640361371827</v>
+        <v>0.3715684464192515</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>259906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>230248</v>
+        <v>229515</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>291531</v>
+        <v>298273</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08347127968577556</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0739465496533554</v>
+        <v>0.07371113678439428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09362794558190493</v>
+        <v>0.09579331435180473</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -2201,19 +2201,19 @@
         <v>154315</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>130824</v>
+        <v>129769</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>180808</v>
+        <v>176855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04806405539027174</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04074729657508503</v>
+        <v>0.04041866541422754</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05631563844676923</v>
+        <v>0.05508457021873582</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>400</v>
@@ -2222,19 +2222,19 @@
         <v>414221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>373085</v>
+        <v>377356</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>455358</v>
+        <v>459687</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06549641753661285</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05899199921731067</v>
+        <v>0.05966744885033547</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07200107592275662</v>
+        <v>0.07268552384002666</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>653068</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>609079</v>
+        <v>604890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>699482</v>
+        <v>700770</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2097393727364102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1956119471208603</v>
+        <v>0.1942665321315216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2246456609308113</v>
+        <v>0.2250593049761156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>456</v>
@@ -2272,19 +2272,19 @@
         <v>467786</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>427645</v>
+        <v>430664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>511179</v>
+        <v>512505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1456999571348971</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1331974866394535</v>
+        <v>0.1341375704214236</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1592153628557323</v>
+        <v>0.15962845274665</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1094</v>
@@ -2293,19 +2293,19 @@
         <v>1120854</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1062940</v>
+        <v>1064234</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1183190</v>
+        <v>1192673</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1772290675528347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1680717418782852</v>
+        <v>0.1682762961926935</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1870856365666646</v>
+        <v>0.1885850768023801</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1212197</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1159767</v>
+        <v>1158443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1266723</v>
+        <v>1268527</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3893091920466404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3724708166341623</v>
+        <v>0.3720455840310943</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4068206020284485</v>
+        <v>0.4074000691132426</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1281</v>
@@ -2343,19 +2343,19 @@
         <v>1316075</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1262564</v>
+        <v>1264876</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1373264</v>
+        <v>1373667</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4099141916405342</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3932472032531292</v>
+        <v>0.3939671880991137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4277264880399002</v>
+        <v>0.4278520948459315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2461</v>
@@ -2364,19 +2364,19 @@
         <v>2528273</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2444498</v>
+        <v>2442686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2604659</v>
+        <v>2601572</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.399769543984785</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3865231847351818</v>
+        <v>0.3862366789305484</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.411847809746</v>
+        <v>0.4113596771732321</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>988542</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>936759</v>
+        <v>942102</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1039184</v>
+        <v>1046103</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3174801555311739</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3008495135346281</v>
+        <v>0.3025655259744722</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3337442339480399</v>
+        <v>0.3359662762141201</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1245</v>
@@ -2414,19 +2414,19 @@
         <v>1272436</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1215839</v>
+        <v>1219026</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1328090</v>
+        <v>1327978</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3963217958342971</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3786939599162643</v>
+        <v>0.379686529453123</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4136563836733176</v>
+        <v>0.4136215156278456</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2230</v>
@@ -2435,19 +2435,19 @@
         <v>2260978</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2186676</v>
+        <v>2183997</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2339678</v>
+        <v>2333351</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3575049709257675</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3457564775774232</v>
+        <v>0.3453327520691483</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3699489832912589</v>
+        <v>0.3689486086909104</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>12464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6170</v>
+        <v>6521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20923</v>
+        <v>21037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01781078631099937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008816496475343449</v>
+        <v>0.009318572738405641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02989850381349204</v>
+        <v>0.03006246264924639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2800,19 +2800,19 @@
         <v>8140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3990</v>
+        <v>3213</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15477</v>
+        <v>15425</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185985140817513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005813304282950775</v>
+        <v>0.00468142404162123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02255014438255657</v>
+        <v>0.02247506302983237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2821,19 +2821,19 @@
         <v>20603</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12727</v>
+        <v>13535</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31193</v>
+        <v>31145</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01486423855538119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009181684418253656</v>
+        <v>0.009765113779496589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02250431781543363</v>
+        <v>0.02246926297273433</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>36776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26051</v>
+        <v>25816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51348</v>
+        <v>51729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05255246644130399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03722676140326531</v>
+        <v>0.03689112391748924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07337631495780406</v>
+        <v>0.07392150305922794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -2871,19 +2871,19 @@
         <v>27339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19041</v>
+        <v>18330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40149</v>
+        <v>39449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03983382595477847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02774401373115938</v>
+        <v>0.02670747119936168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05849887835287191</v>
+        <v>0.05748002143316312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -2892,19 +2892,19 @@
         <v>64114</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50443</v>
+        <v>49459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80997</v>
+        <v>80611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04625495484152149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03639222720801093</v>
+        <v>0.03568189935313261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05843469010437181</v>
+        <v>0.05815669934493822</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>84077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67507</v>
+        <v>67668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102673</v>
+        <v>102403</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1201461171217501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09646781838993082</v>
+        <v>0.09669811270081792</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1467201645685476</v>
+        <v>0.146334444251179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -2942,19 +2942,19 @@
         <v>67980</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53140</v>
+        <v>52918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85354</v>
+        <v>85053</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09905056344679233</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0774272973756701</v>
+        <v>0.07710380075422103</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1243652340282999</v>
+        <v>0.1239271385671977</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -2963,19 +2963,19 @@
         <v>152057</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>128718</v>
+        <v>131081</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178865</v>
+        <v>180248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1097008581247193</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09286338945603871</v>
+        <v>0.09456760168198862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1290411889729292</v>
+        <v>0.1300395659545641</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>566473</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>545436</v>
+        <v>544033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>585952</v>
+        <v>586725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8094906301259466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7794289760447943</v>
+        <v>0.7774249099078143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8373271864069732</v>
+        <v>0.8384319214824734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>543</v>
@@ -3013,19 +3013,19 @@
         <v>582858</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>561780</v>
+        <v>561335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>600258</v>
+        <v>600830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8492557591902541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8185442442645635</v>
+        <v>0.8178964859278817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8746093141215895</v>
+        <v>0.8754423733641529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1083</v>
@@ -3034,19 +3034,19 @@
         <v>1149330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1119482</v>
+        <v>1118367</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1175923</v>
+        <v>1176763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8291799484783781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8076458817369304</v>
+        <v>0.8068413074648157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8483649286117728</v>
+        <v>0.8489712654604631</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>23311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14268</v>
+        <v>14499</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33425</v>
+        <v>34418</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02314942900015518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01416977385307184</v>
+        <v>0.01439907032477159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03319378844645199</v>
+        <v>0.03417964893658434</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -3159,19 +3159,19 @@
         <v>18059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10648</v>
+        <v>10604</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27746</v>
+        <v>28067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01768026387680906</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01042425633046613</v>
+        <v>0.01038181951941358</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02716433903607958</v>
+        <v>0.02747783544468744</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -3180,19 +3180,19 @@
         <v>41370</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31467</v>
+        <v>29793</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>56812</v>
+        <v>57277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02039534641217461</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01551319219485436</v>
+        <v>0.01468819798242928</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02800825695321065</v>
+        <v>0.0282375531741638</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>48190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34558</v>
+        <v>34918</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63342</v>
+        <v>63922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04785710185994643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03431931390351035</v>
+        <v>0.03467657810484522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06290410855903475</v>
+        <v>0.06347949617880234</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3230,19 +3230,19 @@
         <v>41181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29595</v>
+        <v>29342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55015</v>
+        <v>55950</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04031685764967858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02897387043801589</v>
+        <v>0.02872679585990962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05386067321906071</v>
+        <v>0.05477600112414863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -3251,19 +3251,19 @@
         <v>89371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70365</v>
+        <v>72785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108541</v>
+        <v>112552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04406009540278633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03469009523047264</v>
+        <v>0.03588323727450681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05351069124324678</v>
+        <v>0.05548813479803131</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>131620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109891</v>
+        <v>111889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>153971</v>
+        <v>154922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1307097278563437</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1091314713739276</v>
+        <v>0.1111154304410924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1529057497432335</v>
+        <v>0.1538503688481162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -3301,19 +3301,19 @@
         <v>97085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79654</v>
+        <v>79245</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117120</v>
+        <v>118246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09504835350575652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07798299091792711</v>
+        <v>0.07758235243365291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1146629597936926</v>
+        <v>0.1157657757834496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -3322,19 +3322,19 @@
         <v>228705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202208</v>
+        <v>202085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259939</v>
+        <v>261003</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.112751891889175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09968882810418075</v>
+        <v>0.09962840294124069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.128150082259253</v>
+        <v>0.1286750409233215</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>803843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>776421</v>
+        <v>777207</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>828916</v>
+        <v>829364</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7982837412835547</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7710516320896077</v>
+        <v>0.7718314831891245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8231833866039646</v>
+        <v>0.8236285672758443</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>784</v>
@@ -3372,19 +3372,19 @@
         <v>865103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>840441</v>
+        <v>838801</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>886894</v>
+        <v>888315</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8469545249677558</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8228099097021604</v>
+        <v>0.8212046129636672</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8682878574081712</v>
+        <v>0.8696791722880149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1517</v>
@@ -3393,19 +3393,19 @@
         <v>1668946</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1631660</v>
+        <v>1631979</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1700778</v>
+        <v>1702784</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.822792666295864</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8044107889111167</v>
+        <v>0.804567684485484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8384860611934909</v>
+        <v>0.8394749064819002</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>10572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5701</v>
+        <v>5655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17970</v>
+        <v>19311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01423680411916582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007677538310406146</v>
+        <v>0.007615814234136173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02420019023190393</v>
+        <v>0.02600607945187174</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3518,19 +3518,19 @@
         <v>7663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2974</v>
+        <v>3399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15985</v>
+        <v>16027</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009984824250542418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003874806558551043</v>
+        <v>0.004428690088560528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02082726632177066</v>
+        <v>0.02088259713130794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -3539,19 +3539,19 @@
         <v>18235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11397</v>
+        <v>11036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28586</v>
+        <v>28377</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01207573074126144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007547427867029151</v>
+        <v>0.007308523123950154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01893084725340018</v>
+        <v>0.01879183467935375</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>21526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13300</v>
+        <v>13228</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33925</v>
+        <v>33816</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02898924446204352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01791157262343493</v>
+        <v>0.01781350202798932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04568586059297813</v>
+        <v>0.04553932958120943</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -3589,19 +3589,19 @@
         <v>20629</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11908</v>
+        <v>12576</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32341</v>
+        <v>33208</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02687895662803261</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0155152836486635</v>
+        <v>0.01638561643014349</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04213844780382181</v>
+        <v>0.0432692000691112</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>37</v>
@@ -3610,19 +3610,19 @@
         <v>42156</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30507</v>
+        <v>30928</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>58486</v>
+        <v>57381</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02791668838259224</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02020275097279118</v>
+        <v>0.020481280449924</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0387312511357883</v>
+        <v>0.03799964150395589</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>78507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62696</v>
+        <v>62496</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97162</v>
+        <v>97928</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1057241926513036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08443232913145123</v>
+        <v>0.0841619712356235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.13084658002234</v>
+        <v>0.1318780871266327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -3660,19 +3660,19 @@
         <v>88171</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72219</v>
+        <v>70415</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107596</v>
+        <v>108175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1148835239838128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09409888929526448</v>
+        <v>0.09174827571140813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1401938181798655</v>
+        <v>0.140947982093232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>158</v>
@@ -3681,19 +3681,19 @@
         <v>166678</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>142798</v>
+        <v>143955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192516</v>
+        <v>194546</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.110379432730909</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09456523003623758</v>
+        <v>0.09533146801382135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1274901886615116</v>
+        <v>0.1288340715402631</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>631959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>609982</v>
+        <v>610651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>651175</v>
+        <v>651204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8510497587674871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8214538143502654</v>
+        <v>0.8223549508541897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8769280438385429</v>
+        <v>0.8769672962253977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>588</v>
@@ -3731,19 +3731,19 @@
         <v>651020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>629911</v>
+        <v>627736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>669065</v>
+        <v>670424</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8482526951376121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8207485831667267</v>
+        <v>0.8179149193872658</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.87176483631209</v>
+        <v>0.8735354171997768</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1160</v>
@@ -3752,19 +3752,19 @@
         <v>1282978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1253706</v>
+        <v>1250829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1312776</v>
+        <v>1309055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8496281481452373</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8302429869774415</v>
+        <v>0.8283378870405005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8693611787725265</v>
+        <v>0.8668967614921868</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>20589</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12701</v>
+        <v>12889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30188</v>
+        <v>30358</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02337780258758416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01442124012003589</v>
+        <v>0.01463502362454178</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03427739882535188</v>
+        <v>0.03447002611601701</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -3877,19 +3877,19 @@
         <v>21319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14258</v>
+        <v>13637</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32455</v>
+        <v>32003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02233160841154881</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01493535770561441</v>
+        <v>0.01428504001771858</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03399658059165724</v>
+        <v>0.03352294569897633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -3898,19 +3898,19 @@
         <v>41908</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29571</v>
+        <v>30771</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55149</v>
+        <v>56006</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02283362334519598</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0161115950059433</v>
+        <v>0.01676571420967039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03004810791144266</v>
+        <v>0.03051473323520534</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>42099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31440</v>
+        <v>30621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55665</v>
+        <v>55511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04780170911948849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03569884329539688</v>
+        <v>0.03476919004278187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06320559274050247</v>
+        <v>0.06303127418634762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -3948,19 +3948,19 @@
         <v>46462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34971</v>
+        <v>33807</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61846</v>
+        <v>61397</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04866793027229181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03663118461499813</v>
+        <v>0.03541218425263424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06478336345070232</v>
+        <v>0.06431306658681833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -3969,19 +3969,19 @@
         <v>88560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71031</v>
+        <v>73007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107551</v>
+        <v>108514</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04825227516303068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0387014310307653</v>
+        <v>0.03977782983446219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05859917459991767</v>
+        <v>0.05912419330143269</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>145976</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>125104</v>
+        <v>123890</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>168912</v>
+        <v>171008</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1657503165067469</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1420509855030668</v>
+        <v>0.1406725988479764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1917937569036899</v>
+        <v>0.1941740436781373</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -4019,19 +4019,19 @@
         <v>115292</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>95621</v>
+        <v>96456</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>137670</v>
+        <v>138045</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1207665416487159</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1001613505331629</v>
+        <v>0.101036131490474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1442077347575769</v>
+        <v>0.1446000604296858</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>253</v>
@@ -4040,19 +4040,19 @@
         <v>261267</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>231062</v>
+        <v>231084</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>293202</v>
+        <v>292581</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1423519483235384</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.125894362281239</v>
+        <v>0.12590621533104</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1597514740015232</v>
+        <v>0.1594130939184939</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>672034</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>646628</v>
+        <v>645034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>696751</v>
+        <v>696301</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7630701717861805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7342225563359955</v>
+        <v>0.7324126048993862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7911362683356528</v>
+        <v>0.7906243747586431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>733</v>
@@ -4090,19 +4090,19 @@
         <v>771593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>746507</v>
+        <v>744947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>794772</v>
+        <v>795718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8082339196674435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7819564816499313</v>
+        <v>0.7803224313220464</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8325133862171352</v>
+        <v>0.8335038542967477</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1374</v>
@@ -4111,19 +4111,19 @@
         <v>1443627</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1406123</v>
+        <v>1405328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1478426</v>
+        <v>1478529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.786562153168235</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7661278809135333</v>
+        <v>0.7656949713259471</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8055224061181135</v>
+        <v>0.8055785839447109</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>66935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52730</v>
+        <v>51077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84447</v>
+        <v>83449</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02010049545247379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01583476027488777</v>
+        <v>0.01533839722491139</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02535951040908703</v>
+        <v>0.02505971010664125</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -4236,19 +4236,19 @@
         <v>55181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42493</v>
+        <v>40933</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71808</v>
+        <v>71081</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01608829557454184</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01238888336374162</v>
+        <v>0.01193432962008488</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02093588947227129</v>
+        <v>0.02072384195880432</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -4257,19 +4257,19 @@
         <v>122116</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102092</v>
+        <v>101334</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>145544</v>
+        <v>145886</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01806475436602887</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01510262698453555</v>
+        <v>0.01499045074693325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02153050174560407</v>
+        <v>0.0215810642193063</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>148591</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126386</v>
+        <v>123150</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173832</v>
+        <v>175628</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04462179412282889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03795354447174295</v>
+        <v>0.03698169277540052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05220150670728488</v>
+        <v>0.05274103389768635</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -4307,19 +4307,19 @@
         <v>135610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115205</v>
+        <v>115363</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>161208</v>
+        <v>161030</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03953771189032458</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03358837929232564</v>
+        <v>0.03363444255941304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04700079630305136</v>
+        <v>0.04694883600787551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>270</v>
@@ -4328,19 +4328,19 @@
         <v>284201</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>255994</v>
+        <v>253314</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>320571</v>
+        <v>316761</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0420421930554692</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03786951429285493</v>
+        <v>0.03747303140480278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04742233417806365</v>
+        <v>0.04685881543943379</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>440180</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>404724</v>
+        <v>400145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>478598</v>
+        <v>478349</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1321855391681607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1215381730088841</v>
+        <v>0.1201633159206342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1437224490325298</v>
+        <v>0.1436478821629087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>346</v>
@@ -4378,19 +4378,19 @@
         <v>368528</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>331712</v>
+        <v>333658</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>407163</v>
+        <v>408156</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1074458887852187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09671207458038296</v>
+        <v>0.09727942199803803</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1187099754183191</v>
+        <v>0.118999514487992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>772</v>
@@ -4399,19 +4399,19 @@
         <v>808708</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>758185</v>
+        <v>758939</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>866365</v>
+        <v>866590</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1196329435146268</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1121590071828481</v>
+        <v>0.1122706012818422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1281621939279335</v>
+        <v>0.1281956005676304</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>2674307</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2627726</v>
+        <v>2628250</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2723677</v>
+        <v>2725016</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8030921712565366</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7891039155718267</v>
+        <v>0.7892610338383406</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8179178429486703</v>
+        <v>0.8183200032898397</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2648</v>
@@ -4449,19 +4449,19 @@
         <v>2870575</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2827688</v>
+        <v>2821651</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2913214</v>
+        <v>2911881</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8369281037499149</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8244243579463165</v>
+        <v>0.8226642020269218</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8493597780807925</v>
+        <v>0.8489711737183394</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5134</v>
@@ -4470,19 +4470,19 @@
         <v>5544883</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5473649</v>
+        <v>5476846</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5603659</v>
+        <v>5605472</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8202601090638751</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8097224770066814</v>
+        <v>0.8101953743047632</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8289548878593782</v>
+        <v>0.8292231167664749</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>13305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6670</v>
+        <v>6617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23940</v>
+        <v>22953</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02038643471772333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01021965500890854</v>
+        <v>0.01013878894158211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03668096408063667</v>
+        <v>0.03516810521030403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4835,19 +4835,19 @@
         <v>8410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3762</v>
+        <v>3806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16359</v>
+        <v>16714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01287136905267212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005757414574130572</v>
+        <v>0.005825409255573578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02503756348174624</v>
+        <v>0.02558150041360647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4856,19 +4856,19 @@
         <v>21715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12613</v>
+        <v>13431</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32539</v>
+        <v>32765</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01662687092963861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009657660333960823</v>
+        <v>0.01028404707039882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0249143633456945</v>
+        <v>0.02508726974052465</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>39752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28647</v>
+        <v>29377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53827</v>
+        <v>53051</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06090795660758594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04389186805473273</v>
+        <v>0.04501085501724732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08247233780199897</v>
+        <v>0.0812840266649018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4906,19 +4906,19 @@
         <v>19522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12361</v>
+        <v>12326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29545</v>
+        <v>30756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02987945973905737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01891952348676452</v>
+        <v>0.01886558528957531</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04521911160583174</v>
+        <v>0.04707301772130679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -4927,19 +4927,19 @@
         <v>59275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46173</v>
+        <v>45782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75989</v>
+        <v>78048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04538532268462273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03535365386988953</v>
+        <v>0.03505444266527873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05818332902483467</v>
+        <v>0.05975988756028151</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>118153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96477</v>
+        <v>99475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140363</v>
+        <v>141060</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1810317015281152</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1478203585235323</v>
+        <v>0.1524134691771305</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2150620993410392</v>
+        <v>0.2161294247854271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -4977,19 +4977,19 @@
         <v>86236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70817</v>
+        <v>70486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>105747</v>
+        <v>104108</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1319871069963439</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1083880821648512</v>
+        <v>0.1078811530561138</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.161849491058018</v>
+        <v>0.1593404607189327</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>197</v>
@@ -4998,19 +4998,19 @@
         <v>204389</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177991</v>
+        <v>176657</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>232997</v>
+        <v>231749</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1564961499014098</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1362838303035565</v>
+        <v>0.1352623793299679</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1784006596858026</v>
+        <v>0.1774450979800659</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>481452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>457611</v>
+        <v>458488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>504876</v>
+        <v>502489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7376739071465755</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7011442242389697</v>
+        <v>0.7024886466321131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7735626210568461</v>
+        <v>0.7699060055428565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>534</v>
@@ -5048,19 +5048,19 @@
         <v>539201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>518534</v>
+        <v>517943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>557181</v>
+        <v>558821</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8252620642119266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7936310074489588</v>
+        <v>0.7927266918756875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8527820943989586</v>
+        <v>0.8552918858394408</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1006</v>
@@ -5069,19 +5069,19 @@
         <v>1020653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>988380</v>
+        <v>988135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1051110</v>
+        <v>1050990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7814916564843288</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7567807266075844</v>
+        <v>0.7565935644840068</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8048115753360318</v>
+        <v>0.8047196531665679</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>17750</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10534</v>
+        <v>9609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28909</v>
+        <v>27499</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01753520493518397</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01040639941409296</v>
+        <v>0.009492294762521801</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02855894248994629</v>
+        <v>0.02716643501953016</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -5194,19 +5194,19 @@
         <v>21233</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13485</v>
+        <v>13118</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32400</v>
+        <v>32033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02075560496419696</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01318171583201534</v>
+        <v>0.01282291848739762</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03167170090506052</v>
+        <v>0.03131250039836234</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -5215,19 +5215,19 @@
         <v>38983</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27816</v>
+        <v>27824</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55148</v>
+        <v>53407</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01915391614199316</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01366731610178036</v>
+        <v>0.01367120420445072</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02709638349656748</v>
+        <v>0.02624079104496539</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>53977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40569</v>
+        <v>40051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70535</v>
+        <v>72053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05332359150578241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04007851041838081</v>
+        <v>0.03956616391088719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0696810872667437</v>
+        <v>0.07118142816507694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5265,19 +5265,19 @@
         <v>41332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30013</v>
+        <v>29454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55341</v>
+        <v>56797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04040288016722295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0293379661918521</v>
+        <v>0.0287919419647144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0540963634219149</v>
+        <v>0.05551955949205099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -5286,19 +5286,19 @@
         <v>95309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75361</v>
+        <v>77243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116851</v>
+        <v>115374</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04682908770027756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03702788427492019</v>
+        <v>0.03795258041078355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05741359814709907</v>
+        <v>0.05668753970549487</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>179817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155158</v>
+        <v>155621</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206882</v>
+        <v>205814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1776415571234894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1532804228080918</v>
+        <v>0.1537375432061</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2043786713955889</v>
+        <v>0.2033234384153351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -5336,19 +5336,19 @@
         <v>161450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139109</v>
+        <v>139657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>187662</v>
+        <v>188675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1578188962570527</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1359802774985495</v>
+        <v>0.1365167610767898</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1834418578032166</v>
+        <v>0.1844321583734773</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>313</v>
@@ -5357,19 +5357,19 @@
         <v>341267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>310513</v>
+        <v>307344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377874</v>
+        <v>375509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1676778373979268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1525670984198702</v>
+        <v>0.1510102302387439</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1856642801376755</v>
+        <v>0.1845024300237358</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>760704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>731381</v>
+        <v>732419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>788318</v>
+        <v>790397</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7514996464355442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7225316602319426</v>
+        <v>0.7235563915119581</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7787798223871687</v>
+        <v>0.7808329449514546</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>748</v>
@@ -5407,19 +5407,19 @@
         <v>798991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>768328</v>
+        <v>768885</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>824920</v>
+        <v>824984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7810226186115274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7510489306956052</v>
+        <v>0.7515935196923667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8063690858695279</v>
+        <v>0.806431154426324</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1460</v>
@@ -5428,19 +5428,19 @@
         <v>1559695</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1518032</v>
+        <v>1522774</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1597014</v>
+        <v>1597475</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7663391587598024</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7458687969873316</v>
+        <v>0.7481987307290515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7846754277396175</v>
+        <v>0.7849022189405437</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>41298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30564</v>
+        <v>29406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56922</v>
+        <v>55324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05525812796662095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04089509011640607</v>
+        <v>0.03934615426773973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07616265553578057</v>
+        <v>0.07402431463835119</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -5553,19 +5553,19 @@
         <v>33220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22674</v>
+        <v>23498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45286</v>
+        <v>47584</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04354516680270253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02972111004025886</v>
+        <v>0.03080240431337785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05936230526400781</v>
+        <v>0.06237458732848331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>69</v>
@@ -5574,19 +5574,19 @@
         <v>74518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59062</v>
+        <v>59702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93903</v>
+        <v>91296</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04934153058637644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03910740571870321</v>
+        <v>0.03953095047670411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06217684113803332</v>
+        <v>0.06045102566690534</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>92744</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75976</v>
+        <v>75564</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113908</v>
+        <v>113794</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.124093122140909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1016578312214833</v>
+        <v>0.1011060336250156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1524110426754887</v>
+        <v>0.1522592286565105</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>97</v>
@@ -5624,19 +5624,19 @@
         <v>100696</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>83319</v>
+        <v>83597</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>121106</v>
+        <v>120773</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1319956976317474</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.109217362520845</v>
+        <v>0.1095819142143333</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1587488044185161</v>
+        <v>0.1583132674900985</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>179</v>
@@ -5645,19 +5645,19 @@
         <v>193440</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>168749</v>
+        <v>168821</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>225248</v>
+        <v>218352</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1280849698719773</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1117358453011676</v>
+        <v>0.111783400254139</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1491464135635297</v>
+        <v>0.1445804183491493</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>172125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150167</v>
+        <v>148938</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196290</v>
+        <v>197590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2303066794372118</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2009260608290401</v>
+        <v>0.1992824884442579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2626396683603495</v>
+        <v>0.2643787767421085</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -5695,19 +5695,19 @@
         <v>163368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140182</v>
+        <v>141027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186754</v>
+        <v>185532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2141474242159087</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1837542999627245</v>
+        <v>0.1848618296478289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2448032041150898</v>
+        <v>0.243200266937383</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>316</v>
@@ -5716,19 +5716,19 @@
         <v>335493</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302986</v>
+        <v>306822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369634</v>
+        <v>371289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.222144114414493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2006201259869028</v>
+        <v>0.2031599821045957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2447505744658695</v>
+        <v>0.2458460183675777</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>441206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>415620</v>
+        <v>412640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>469280</v>
+        <v>467018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5903420704552582</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5561078494001365</v>
+        <v>0.5521212134337422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6279054636104124</v>
+        <v>0.6248790923172356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>428</v>
@@ -5766,19 +5766,19 @@
         <v>465592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>439933</v>
+        <v>440754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495136</v>
+        <v>492734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6103117113496415</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5766775207253499</v>
+        <v>0.5777537069698322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6490380755105174</v>
+        <v>0.6458904503403903</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>837</v>
@@ -5787,19 +5787,19 @@
         <v>906798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>867042</v>
+        <v>866376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>944042</v>
+        <v>946633</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6004293851271533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5741053772287121</v>
+        <v>0.5736645039985888</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6250902205432312</v>
+        <v>0.6268060847143627</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>12229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6299</v>
+        <v>6763</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20652</v>
+        <v>20320</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01341911787994162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006911552505930473</v>
+        <v>0.00742058533555308</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02266112480432131</v>
+        <v>0.02229754324643452</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5912,19 +5912,19 @@
         <v>21082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13084</v>
+        <v>13390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31916</v>
+        <v>31651</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02088747155727995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01296261627357498</v>
+        <v>0.01326668547441031</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03162099388839813</v>
+        <v>0.03135871350408626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -5933,19 +5933,19 @@
         <v>33312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23389</v>
+        <v>22289</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45901</v>
+        <v>45263</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01734384265905373</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01217776493671271</v>
+        <v>0.01160463761497035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02389877564094515</v>
+        <v>0.0235663932361532</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>36970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26409</v>
+        <v>26717</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50014</v>
+        <v>51349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04056714068180092</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02897888106160669</v>
+        <v>0.02931622533002</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05488004477319169</v>
+        <v>0.05634580447966651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -5983,19 +5983,19 @@
         <v>40718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29258</v>
+        <v>29764</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56282</v>
+        <v>54733</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04034181525124979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02898725503346688</v>
+        <v>0.02948875694588729</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05576128571006397</v>
+        <v>0.05422733298910238</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -6004,19 +6004,19 @@
         <v>77688</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62156</v>
+        <v>62224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>99236</v>
+        <v>97555</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04044872900248644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03236194674083401</v>
+        <v>0.03239718284593879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05166802364435266</v>
+        <v>0.05079269901376103</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>135948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114555</v>
+        <v>114436</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>158043</v>
+        <v>157532</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1491766178345057</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1257020833252184</v>
+        <v>0.1255709165371903</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1734209073851319</v>
+        <v>0.1728600019483522</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>122</v>
@@ -6054,19 +6054,19 @@
         <v>129243</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>108164</v>
+        <v>109181</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>150626</v>
+        <v>149442</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1280485012902303</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1071636784409278</v>
+        <v>0.1081717016125798</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1492329303571933</v>
+        <v>0.1480606654260061</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>256</v>
@@ -6075,19 +6075,19 @@
         <v>265192</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>235847</v>
+        <v>234712</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>294566</v>
+        <v>295433</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1380734957650593</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1227951518181506</v>
+        <v>0.1222038827328992</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1533674254085928</v>
+        <v>0.1538188585375974</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>726178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>700261</v>
+        <v>701498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>748987</v>
+        <v>749515</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7968371236037517</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7683984929495535</v>
+        <v>0.7697560625689832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8218655772977268</v>
+        <v>0.8224453946773498</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>748</v>
@@ -6125,19 +6125,19 @@
         <v>818288</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>792754</v>
+        <v>792302</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>841530</v>
+        <v>841758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8107222119012399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7854248500615043</v>
+        <v>0.7849764098944713</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8337497401380306</v>
+        <v>0.8339757277704862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1473</v>
@@ -6146,19 +6146,19 @@
         <v>1544465</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1513270</v>
+        <v>1511116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1581123</v>
+        <v>1579323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8041339325734005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7878923252327797</v>
+        <v>0.7867706044901011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8232205233030796</v>
+        <v>0.8222831875409522</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>84583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67448</v>
+        <v>67546</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105702</v>
+        <v>104037</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02544916549513821</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02029357976889251</v>
+        <v>0.02032295063611143</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03180350736950689</v>
+        <v>0.03130249305382412</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -6271,19 +6271,19 @@
         <v>83945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66306</v>
+        <v>66612</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>103691</v>
+        <v>103264</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02434183019309305</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0192271259746424</v>
+        <v>0.01931565094730928</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03006763532604871</v>
+        <v>0.02994388106670903</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>156</v>
@@ -6292,19 +6292,19 @@
         <v>168528</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>142109</v>
+        <v>142331</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>196675</v>
+        <v>197550</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02488528046166945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02098416987627015</v>
+        <v>0.02101698175295561</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02904159023833448</v>
+        <v>0.02917081486742187</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>223443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>193629</v>
+        <v>195522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>252650</v>
+        <v>253885</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06722896748217794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05825857307916487</v>
+        <v>0.05882817568271387</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07601670378429824</v>
+        <v>0.07638827763343699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>194</v>
@@ -6342,19 +6342,19 @@
         <v>202269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>175709</v>
+        <v>175527</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>233764</v>
+        <v>232677</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05865288702863457</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05095096198734649</v>
+        <v>0.05089830978616131</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06778565007819244</v>
+        <v>0.06747018991880524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>401</v>
@@ -6363,19 +6363,19 @@
         <v>425712</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>386529</v>
+        <v>388404</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>465905</v>
+        <v>467179</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06286179576404927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05707591012206239</v>
+        <v>0.05735273933217386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06879682854968122</v>
+        <v>0.06898495252705864</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>606043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>564738</v>
+        <v>562699</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>653426</v>
+        <v>653654</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1823449789180612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1699170135514547</v>
+        <v>0.1693036855277738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1966014897260141</v>
+        <v>0.1966700497304011</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>517</v>
@@ -6413,19 +6413,19 @@
         <v>540297</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>498888</v>
+        <v>499471</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>585585</v>
+        <v>587594</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1566722770644114</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1446647542453106</v>
+        <v>0.1448336609643083</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1698046292619577</v>
+        <v>0.1703870316848981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1082</v>
@@ -6434,19 +6434,19 @@
         <v>1146341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1083497</v>
+        <v>1085820</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1210495</v>
+        <v>1203727</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1692717459801769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1599921012692313</v>
+        <v>0.1603351475803235</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1787448997299295</v>
+        <v>0.1777454851083829</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>2409540</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2357337</v>
+        <v>2353575</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2462525</v>
+        <v>2459605</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7249768881046227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.709270383828185</v>
+        <v>0.7081383387229245</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7409189960496633</v>
+        <v>0.7400404644676901</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2458</v>
@@ -6484,19 +6484,19 @@
         <v>2622071</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2569131</v>
+        <v>2573219</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2670602</v>
+        <v>2671857</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.760333005713861</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7449817259113296</v>
+        <v>0.7461670374936415</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7744055824920092</v>
+        <v>0.7747694858545969</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4776</v>
@@ -6505,19 +6505,19 @@
         <v>5031611</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4961681</v>
+        <v>4962538</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5106760</v>
+        <v>5106888</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7429811777941044</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7326551504055615</v>
+        <v>0.7327816891780637</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7540778782390301</v>
+        <v>0.7540967876609792</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>5418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2318</v>
+        <v>2230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11243</v>
+        <v>11376</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007881842240274505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003372048292094254</v>
+        <v>0.003244452293855094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01635491660726912</v>
+        <v>0.01654864169413282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6873,16 +6873,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4571</v>
+        <v>3629</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0009889215984374199</v>
+        <v>0.0009889215984374197</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006272782062716575</v>
+        <v>0.004980299248117161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -6891,19 +6891,19 @@
         <v>6139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2706</v>
+        <v>2788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12091</v>
+        <v>11585</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.004335091304095693</v>
+        <v>0.004335091304095694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001910905605429446</v>
+        <v>0.001968481865410265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008538562936117607</v>
+        <v>0.008180960597258658</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>34322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24605</v>
+        <v>23990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47495</v>
+        <v>47921</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04992718559441305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03579206269633421</v>
+        <v>0.03489784427860423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06908940194055756</v>
+        <v>0.0697095103344659</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -6941,19 +6941,19 @@
         <v>21305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14352</v>
+        <v>14334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31404</v>
+        <v>31477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02923868711715586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01969622022009235</v>
+        <v>0.01967243129461791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04309902701516404</v>
+        <v>0.04319969490040224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -6962,19 +6962,19 @@
         <v>55627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43442</v>
+        <v>42800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73364</v>
+        <v>71713</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03928192284512517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03067743312199723</v>
+        <v>0.03022381852385465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05180768752952794</v>
+        <v>0.05064140938860091</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>66361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51559</v>
+        <v>51819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84709</v>
+        <v>86411</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.096533304910809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07500124138392943</v>
+        <v>0.07537935401075968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1232231530546304</v>
+        <v>0.1257000314826532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -7012,19 +7012,19 @@
         <v>50185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40601</v>
+        <v>40878</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62278</v>
+        <v>61558</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06887463198288692</v>
+        <v>0.0688746319828869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05572160258403212</v>
+        <v>0.05610132134402027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08547060495296438</v>
+        <v>0.08448187538636462</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -7033,19 +7033,19 @@
         <v>116546</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99560</v>
+        <v>100142</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140019</v>
+        <v>138473</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08230154029347746</v>
+        <v>0.08230154029347747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07030642125752752</v>
+        <v>0.07071687732274662</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09887743012655593</v>
+        <v>0.0977855249609401</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>581341</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>560201</v>
+        <v>559743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>599578</v>
+        <v>599034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8456576672545033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8149065733066428</v>
+        <v>0.8142405476473114</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8721871626567927</v>
+        <v>0.871395828990491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1109</v>
@@ -7083,19 +7083,19 @@
         <v>656438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>641540</v>
+        <v>642374</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>668545</v>
+        <v>667435</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9008977593015198</v>
+        <v>0.9008977593015197</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8804515151923057</v>
+        <v>0.8815956633893779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.917512917894158</v>
+        <v>0.9159903206671919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1728</v>
@@ -7104,19 +7104,19 @@
         <v>1237779</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1210570</v>
+        <v>1213945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1259478</v>
+        <v>1259249</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8740814455573016</v>
+        <v>0.8740814455573017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8548675257405459</v>
+        <v>0.8572510156277718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8894047115554531</v>
+        <v>0.8892430117924121</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>2252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6606</v>
+        <v>5991</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002158392559679981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0005734779098684692</v>
+        <v>0.0005842886559094201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006330311918161216</v>
+        <v>0.005741660325832103</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -7229,19 +7229,19 @@
         <v>10854</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6043</v>
+        <v>6338</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19492</v>
+        <v>19059</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.01022888524092672</v>
+        <v>0.01022888524092673</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005694384095931242</v>
+        <v>0.005972548411846067</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01836836709598938</v>
+        <v>0.01796094435490039</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -7250,19 +7250,19 @@
         <v>13107</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7981</v>
+        <v>7659</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21090</v>
+        <v>21262</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006227525161650121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003792291385963186</v>
+        <v>0.003639241854771399</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01002068203466202</v>
+        <v>0.01010275290539177</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>40188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27765</v>
+        <v>27394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55378</v>
+        <v>56916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03851411718854119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02660796097494561</v>
+        <v>0.02625298923052847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05307038958573437</v>
+        <v>0.05454439837589276</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -7300,19 +7300,19 @@
         <v>37459</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28606</v>
+        <v>28807</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48831</v>
+        <v>51603</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03530003911358391</v>
+        <v>0.03530003911358392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02695749105259388</v>
+        <v>0.02714660822903192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04601701015047001</v>
+        <v>0.04862983099873329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -7321,19 +7321,19 @@
         <v>77647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61624</v>
+        <v>61227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96728</v>
+        <v>96324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03689358292915498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02928045952647705</v>
+        <v>0.02909183764150937</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04595978728909979</v>
+        <v>0.04576796158496641</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>109658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86753</v>
+        <v>87073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135883</v>
+        <v>135718</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1050896036632642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0831383509621485</v>
+        <v>0.08344526829594118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1302221957258773</v>
+        <v>0.1300639182038763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -7371,19 +7371,19 @@
         <v>106863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90180</v>
+        <v>87759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128329</v>
+        <v>126156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1007055852188548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08498368112503052</v>
+        <v>0.0827019579189468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1209343459607669</v>
+        <v>0.1188864179984713</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -7392,19 +7392,19 @@
         <v>216522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187770</v>
+        <v>188426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248178</v>
+        <v>248923</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1028791868914062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08921799053464849</v>
+        <v>0.0895296986263702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.117920555658139</v>
+        <v>0.118274422862596</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>891375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>863795</v>
+        <v>861877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>916910</v>
+        <v>918536</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8542378865885145</v>
+        <v>0.8542378865885147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8278070801879006</v>
+        <v>0.8259691295993103</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8787088116574819</v>
+        <v>0.8802669829194308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1293</v>
@@ -7442,19 +7442,19 @@
         <v>905971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>880727</v>
+        <v>882900</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>923720</v>
+        <v>928232</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8537654904266345</v>
+        <v>0.8537654904266346</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.829976634538767</v>
+        <v>0.8320243266402328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8704919239372699</v>
+        <v>0.8747443738777788</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2124</v>
@@ -7463,19 +7463,19 @@
         <v>1797346</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1762496</v>
+        <v>1761591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1831285</v>
+        <v>1829353</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8539997050177885</v>
+        <v>0.8539997050177887</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8374409174408762</v>
+        <v>0.8370108900430315</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8701256923754793</v>
+        <v>0.8692078960423539</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>4925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1815</v>
+        <v>1944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10769</v>
+        <v>12411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006152179487819844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002267037579662619</v>
+        <v>0.0024285156184845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01345248453887833</v>
+        <v>0.01550326810663918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -7588,19 +7588,19 @@
         <v>11139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5624</v>
+        <v>5356</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20417</v>
+        <v>21129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01379730565918625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00696609498345787</v>
+        <v>0.0066339629091311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02528801640910108</v>
+        <v>0.02617042251162759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -7609,19 +7609,19 @@
         <v>16064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9455</v>
+        <v>9049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28348</v>
+        <v>26823</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.009991005578344012</v>
+        <v>0.009991005578344014</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005880113758035186</v>
+        <v>0.005627727051555932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01763063693886575</v>
+        <v>0.01668224113827983</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>41950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28652</v>
+        <v>29458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59400</v>
+        <v>58041</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0524025786947825</v>
+        <v>0.05240257869478251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03579203992588032</v>
+        <v>0.03679891050353207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07420058814472845</v>
+        <v>0.07250342223009122</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -7659,19 +7659,19 @@
         <v>33838</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24288</v>
+        <v>25548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46576</v>
+        <v>46043</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04191177205656844</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03008264344854052</v>
+        <v>0.0316436598214897</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05768865125799478</v>
+        <v>0.05702825902205515</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>78</v>
@@ -7680,19 +7680,19 @@
         <v>75788</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58675</v>
+        <v>58318</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>93757</v>
+        <v>97467</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04713485893048953</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03649198393594689</v>
+        <v>0.03627008889339137</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05831061162963064</v>
+        <v>0.06061787052811352</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>138538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114795</v>
+        <v>114722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166911</v>
+        <v>165342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1730588366301455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1433996022907487</v>
+        <v>0.1433085929937324</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2085010770789083</v>
+        <v>0.2065422530534139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -7730,19 +7730,19 @@
         <v>105193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88552</v>
+        <v>88175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124488</v>
+        <v>125156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.130291697139665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1096805193660042</v>
+        <v>0.109212731319615</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1541901129279651</v>
+        <v>0.1550178880123449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -7751,19 +7751,19 @@
         <v>243731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>214108</v>
+        <v>212700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275201</v>
+        <v>275921</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1515842909898084</v>
+        <v>0.1515842909898085</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1331603080157235</v>
+        <v>0.1322850351959738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1711560076052836</v>
+        <v>0.1716040441102092</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>615113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>585557</v>
+        <v>585945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>642272</v>
+        <v>641185</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7683864051872521</v>
+        <v>0.7683864051872523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7314654609162274</v>
+        <v>0.7319502142333419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8023127802480171</v>
+        <v>0.8009550085386279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>853</v>
@@ -7801,19 +7801,19 @@
         <v>657196</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634798</v>
+        <v>635482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>676541</v>
+        <v>678615</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8139992251445803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7862571851117198</v>
+        <v>0.7871038277735015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8379601737614527</v>
+        <v>0.8405291420105825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1378</v>
@@ -7822,19 +7822,19 @@
         <v>1272309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1235896</v>
+        <v>1235534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1303467</v>
+        <v>1306533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.791289844501358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7686429090416255</v>
+        <v>0.7684177373731512</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8106679547389065</v>
+        <v>0.8125747034105466</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>22978</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14971</v>
+        <v>14663</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36834</v>
+        <v>37238</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02323479058133317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0151378690231115</v>
+        <v>0.01482733209882338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03724614980745176</v>
+        <v>0.03765440929811758</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -7947,19 +7947,19 @@
         <v>13712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8080</v>
+        <v>8022</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23689</v>
+        <v>24026</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01228578678468263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007239451563251047</v>
+        <v>0.007187529516877526</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02122514778926703</v>
+        <v>0.02152752163890941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -7968,19 +7968,19 @@
         <v>36690</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26279</v>
+        <v>26421</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55172</v>
+        <v>54352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01742965109557482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01248409075970551</v>
+        <v>0.01255162405099064</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02620962157825476</v>
+        <v>0.02582018778003654</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>65753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48957</v>
+        <v>48105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86535</v>
+        <v>87894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06648795081530914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04950458363991354</v>
+        <v>0.04864275146783811</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08750247521147497</v>
+        <v>0.08887650284878112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -8018,19 +8018,19 @@
         <v>49579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38818</v>
+        <v>38642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62568</v>
+        <v>61257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04442209062062717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03478109889785074</v>
+        <v>0.03462288910467035</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05606065360048473</v>
+        <v>0.05488546380325873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>125</v>
@@ -8039,19 +8039,19 @@
         <v>115331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93840</v>
+        <v>95729</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137866</v>
+        <v>138904</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05478867673682558</v>
+        <v>0.05478867673682557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04457927964656088</v>
+        <v>0.04547648190863616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06549365217170247</v>
+        <v>0.06598695943711018</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>97873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79538</v>
+        <v>80541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>120767</v>
+        <v>121164</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0989671928520232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08042708342709654</v>
+        <v>0.08144145565882346</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1221172589123859</v>
+        <v>0.122518658216683</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>141</v>
@@ -8089,19 +8089,19 @@
         <v>97028</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>81565</v>
+        <v>81693</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>115268</v>
+        <v>115564</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08693640790603743</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07308218696051669</v>
+        <v>0.07319602592095635</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1032790464809802</v>
+        <v>0.1035450397378488</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>235</v>
@@ -8110,19 +8110,19 @@
         <v>194901</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>171040</v>
+        <v>171608</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>221890</v>
+        <v>221841</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09258849520685714</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08125322090361564</v>
+        <v>0.08152285101161588</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1054098501587446</v>
+        <v>0.1053863038944081</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>802340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>775416</v>
+        <v>773461</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>829118</v>
+        <v>827651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8113100657513345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7840844543461282</v>
+        <v>0.7821084063260066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8383871612309708</v>
+        <v>0.8369038689652294</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1328</v>
@@ -8160,19 +8160,19 @@
         <v>955761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>931224</v>
+        <v>932514</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>974506</v>
+        <v>974602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8563557146886527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8343710650956806</v>
+        <v>0.8355270033115463</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.873151682989675</v>
+        <v>0.8732376208853542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2165</v>
@@ -8181,19 +8181,19 @@
         <v>1758102</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1723465</v>
+        <v>1721591</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1792281</v>
+        <v>1788335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8351931769607425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8187389864585108</v>
+        <v>0.8178485945017165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.851430246059821</v>
+        <v>0.8495554688196212</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>35573</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24062</v>
+        <v>25726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50901</v>
+        <v>54298</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.01010498031504798</v>
+        <v>0.01010498031504799</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006834995176159126</v>
+        <v>0.007307623301143411</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01445906389032455</v>
+        <v>0.01542383598739592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -8306,19 +8306,19 @@
         <v>36426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25451</v>
+        <v>25786</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50183</v>
+        <v>50117</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.009809843841928892</v>
+        <v>0.00980984384192889</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006854069399466266</v>
+        <v>0.006944343899679927</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01351461251973756</v>
+        <v>0.01349696191197024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -8327,19 +8327,19 @@
         <v>72000</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57101</v>
+        <v>57959</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92423</v>
+        <v>93784</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009953477737349186</v>
+        <v>0.009953477737349187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007893887289116771</v>
+        <v>0.008012503581424163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01277679514880741</v>
+        <v>0.01296502703988865</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>182213</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>154877</v>
+        <v>153003</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217360</v>
+        <v>213465</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05175938748814883</v>
+        <v>0.05175938748814882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04399445521376873</v>
+        <v>0.04346210971143825</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06174334371097174</v>
+        <v>0.06063673267808761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>199</v>
@@ -8377,19 +8377,19 @@
         <v>142180</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122158</v>
+        <v>123182</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>165342</v>
+        <v>162862</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03828999385724583</v>
+        <v>0.03828999385724584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03289792291221497</v>
+        <v>0.03317361455136784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.044527784653912</v>
+        <v>0.04385974000900351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -8398,19 +8398,19 @@
         <v>324393</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>290290</v>
+        <v>290967</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>362854</v>
+        <v>365670</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04484513580805195</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04013058217169706</v>
+        <v>0.04022416124310311</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05016209739658727</v>
+        <v>0.05055132194088804</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>412430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>372843</v>
+        <v>368298</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>458189</v>
+        <v>459538</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1171548921626453</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1059098339959377</v>
+        <v>0.1046185891392015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1301531911113053</v>
+        <v>0.1305361703083728</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>514</v>
@@ -8448,19 +8448,19 @@
         <v>359270</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326262</v>
+        <v>329537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>395458</v>
+        <v>392457</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09675371733029318</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08786456644470371</v>
+        <v>0.08874636070627276</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1064992948165498</v>
+        <v>0.1056912407257734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>873</v>
@@ -8469,19 +8469,19 @@
         <v>771701</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>714631</v>
+        <v>723640</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>829384</v>
+        <v>829379</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1066823451998104</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09879292991408033</v>
+        <v>0.1000382595257086</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1146567094470776</v>
+        <v>0.1146560662703487</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>2890169</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2838164</v>
+        <v>2833590</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2939798</v>
+        <v>2940866</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8209807400341579</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8062081674432706</v>
+        <v>0.8049089751489422</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.835078352158269</v>
+        <v>0.835381608759984</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4583</v>
@@ -8519,19 +8519,19 @@
         <v>3175367</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3134560</v>
+        <v>3134929</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3210915</v>
+        <v>3211937</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8551464449705323</v>
+        <v>0.855146444970532</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8441569892213757</v>
+        <v>0.844256381678266</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8647198348255443</v>
+        <v>0.8649951043209696</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7395</v>
@@ -8540,19 +8540,19 @@
         <v>6065536</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5998535</v>
+        <v>5995790</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6130300</v>
+        <v>6125557</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8385190412547883</v>
+        <v>0.8385190412547885</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8292566788948253</v>
+        <v>0.8288771788841418</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8474723318388241</v>
+        <v>0.8468165337028051</v>
       </c>
     </row>
     <row r="28">
